--- a/data/compiled-nearest-neighbor-counting-for-octahedral-rotations.xlsx
+++ b/data/compiled-nearest-neighbor-counting-for-octahedral-rotations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zvanf\OneDrive\Documents\vasp\research-github\EuTiO3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A098C47A-AA46-4EF4-9BE4-1404224E0E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BEFD84-0288-4B4E-A1AB-F9084462B6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57615" yWindow="15" windowWidth="22845" windowHeight="12135" xr2:uid="{B3CF4BDC-0A7E-4ADA-A677-1D391BB00AF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B3CF4BDC-0A7E-4ADA-A677-1D391BB00AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,17 +465,17 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1015625" customWidth="1"/>
-    <col min="9" max="9" width="20.26171875" customWidth="1"/>
-    <col min="10" max="10" width="21.734375" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="9" max="9" width="20.26953125" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -507,7 +507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -548,7 +548,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -581,7 +581,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -614,7 +614,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -647,7 +647,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -680,7 +680,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -713,7 +713,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -746,7 +746,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -779,7 +779,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -812,7 +812,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -845,7 +845,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -878,7 +878,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -911,7 +911,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -944,7 +944,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
